--- a/Truth-or-Dare/策划文档/美术需求/游戏介绍.xlsx
+++ b/Truth-or-Dare/策划文档/美术需求/游戏介绍.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Truth-or-Dare\Truth-or-Dare\策划文档\美术需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F978103-1199-4CBB-864C-F14AC8642EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD9EC05-D927-4DEA-A983-68B1377D5DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -487,44 +487,47 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -533,12 +536,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1232,94 +1229,94 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="10" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -1330,7 +1327,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1343,7 +1340,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1352,203 +1349,113 @@
     </row>
     <row r="17" spans="2:19" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="9"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="7"/>
     </row>
     <row r="19" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="11"/>
+      <c r="S19" s="8"/>
     </row>
     <row r="20" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="11"/>
+      <c r="S20" s="8"/>
     </row>
     <row r="21" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="11"/>
+      <c r="S21" s="8"/>
     </row>
     <row r="22" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="11"/>
+      <c r="S22" s="8"/>
     </row>
     <row r="23" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="11"/>
+      <c r="S23" s="8"/>
     </row>
     <row r="24" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="11"/>
+      <c r="S24" s="8"/>
     </row>
     <row r="25" spans="2:19" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="13"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="10"/>
     </row>
     <row r="27" spans="2:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1585,54 +1492,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1643,353 +1550,353 @@
       <c r="E14"/>
     </row>
     <row r="20" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
       <c r="K20"/>
     </row>
     <row r="21" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="16" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="16" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="16" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="18" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="47" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L47"/>
     </row>
     <row r="48" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
     </row>
     <row r="49" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
     </row>
     <row r="50" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="18" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="18" t="s">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="21"/>
     </row>
     <row r="52" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="18" t="s">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="21"/>
     </row>
     <row r="53" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="18" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="21"/>
     </row>
     <row r="70" spans="2:11" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="72" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
     </row>
     <row r="73" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="14"/>
-      <c r="C73" s="6" t="s">
+      <c r="B73" s="17"/>
+      <c r="C73" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
       <c r="K73"/>
     </row>
     <row r="74" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="14"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="16" t="s">
+      <c r="B74" s="17"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
     </row>
     <row r="75" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="14"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="16" t="s">
+      <c r="B75" s="17"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
     </row>
     <row r="87" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L87"/>
     </row>
     <row r="88" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="D88" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
     </row>
     <row r="89" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="14"/>
-      <c r="C89" s="6" t="s">
+      <c r="B89" s="17"/>
+      <c r="C89" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="16" t="s">
+      <c r="D89" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
     </row>
     <row r="90" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="14"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="16" t="s">
+      <c r="B90" s="17"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
     </row>
     <row r="98" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D98" s="16" t="s">
+      <c r="D98" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
     </row>
     <row r="99" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="14"/>
-      <c r="C99" s="6" t="s">
+      <c r="B99" s="17"/>
+      <c r="C99" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D99" s="16" t="s">
+      <c r="D99" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
     </row>
     <row r="100" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="14"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="16" t="s">
+      <c r="B100" s="17"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
     </row>
     <row r="112" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="16" t="s">
+      <c r="D112" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
     </row>
     <row r="113" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="14"/>
-      <c r="C113" s="6" t="s">
+      <c r="B113" s="17"/>
+      <c r="C113" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="D113" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
     </row>
     <row r="114" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="14"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="16" t="s">
+      <c r="B114" s="17"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -2003,6 +1910,7 @@
     <mergeCell ref="C99:C100"/>
     <mergeCell ref="D99:I99"/>
     <mergeCell ref="D100:I100"/>
+    <mergeCell ref="D72:I72"/>
     <mergeCell ref="D75:I75"/>
     <mergeCell ref="C73:C75"/>
     <mergeCell ref="B72:B75"/>
@@ -2011,11 +1919,6 @@
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="D89:I89"/>
     <mergeCell ref="D90:I90"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="D52:I52"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D53:I53"/>
-    <mergeCell ref="D72:I72"/>
     <mergeCell ref="D73:I73"/>
     <mergeCell ref="D74:I74"/>
     <mergeCell ref="D23:I23"/>
@@ -2027,14 +1930,18 @@
     <mergeCell ref="C49:C53"/>
     <mergeCell ref="D49:I49"/>
     <mergeCell ref="D50:I50"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="D52:I52"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D53:I53"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
